--- a/data/DMRT_Hongos/DMRT.xlsx
+++ b/data/DMRT_Hongos/DMRT.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailudesedu-my.sharepoint.com/personal/fr_ortiz_mail_udes_edu_co/Documents/1_2025B_INFO SEMESTRAL/2025B_GR_PMD_Manual R/DMRT_Hongos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R-Proyectos\r-para-mi\data\DMRT_Hongos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{B1CC5625-5159-4CD9-A0A4-7D1017102532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDF49213-45C2-4F4C-9C0E-B265A3ABD0AA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77070B1C-03F8-4396-AE48-9D8A6860F616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B4BD8583-BF1C-4827-932D-3511C9A741A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4BD8583-BF1C-4827-932D-3511C9A741A8}"/>
   </bookViews>
   <sheets>
     <sheet name="MATRIZ_MRT_Pb_Remo" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MATRIZ_MRT_Pb_Remo!$A$1:$D$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MATRIZ_MRT_Pb_Remo!$B$1:$E$37</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="21">
   <si>
     <t>Tratamiento</t>
   </si>
@@ -72,12 +72,42 @@
   </si>
   <si>
     <t>20 ddi</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>f1100</t>
+  </si>
+  <si>
+    <t>f2200</t>
+  </si>
+  <si>
+    <t>f2100</t>
+  </si>
+  <si>
+    <t>f3100</t>
+  </si>
+  <si>
+    <t>f1150</t>
+  </si>
+  <si>
+    <t>f2150</t>
+  </si>
+  <si>
+    <t>f3150</t>
+  </si>
+  <si>
+    <t>f1200</t>
+  </si>
+  <si>
+    <t>f3200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,7 +165,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{ED9DBBC3-9808-4B35-86FB-1DFA0B0CBC87}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -447,542 +479,654 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1"/>
-    <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" style="1"/>
-    <col min="4" max="16384" width="11.453125" style="2"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>9.7000000000000028</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>12.799999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>63.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>58.3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>67.7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>82.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>87.4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>90.2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
         <v>35.733333333333327</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>33.266666666666673</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>59.933333333333337</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>55.133333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>3</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>56.800000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>91.866666666666674</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>94.133333333333326</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>92.8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>2</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>3</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="3">
         <v>53.349999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E30" s="3">
         <v>56.05</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>3</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E31" s="3">
         <v>55.399999999999991</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="3">
+      <c r="E32" s="3">
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>2</v>
       </c>
-      <c r="D33" s="3">
+      <c r="E33" s="3">
         <v>77.7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>3</v>
       </c>
-      <c r="D34" s="3">
+      <c r="E34" s="3">
         <v>75.05</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="D35" s="3">
+      <c r="E35" s="3">
         <v>94.8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="1">
         <v>2</v>
       </c>
-      <c r="D36" s="3">
+      <c r="E36" s="3">
         <v>92.7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="1">
+      <c r="D37" s="1">
         <v>3</v>
       </c>
-      <c r="D37" s="3">
+      <c r="E37" s="3">
         <v>95.65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D37" xr:uid="{1E98C973-F07A-4809-8643-1584F10857DF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
-    <sortCondition ref="A1:A37"/>
+  <autoFilter ref="B1:E37" xr:uid="{1E98C973-F07A-4809-8643-1584F10857DF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E37">
+    <sortCondition ref="B1:B37"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
